--- a/biology/Médecine/Thérapie_communautaire/Thérapie_communautaire.xlsx
+++ b/biology/Médecine/Thérapie_communautaire/Thérapie_communautaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapie_communautaire</t>
+          <t>Thérapie_communautaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thérapie communautaire (ou thérapie communautaire systémique et intégrative) est une méthode thérapeutique collective créée par le professeur Adalberto Barreto au Brésil.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapie_communautaire</t>
+          <t>Thérapie_communautaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la thérapie communautaire, c'est le groupe qui accueille, soutient et dégage les solutions. Cette thérapie est dite « systémique » parce qu'elle rapproche les difficultés individuelles des interactions sociales. Les individus ne sont pas vus comme isolés mais comme membres d’un réseau relationnel, capable d’autorégulation, de progression, de croissance. Elle est dite « intégrative » parce qu'elle lutte contre l’isolement et l’exclusion, pour la diversité des cultures, des savoir-faire et des compétences. Elle intègre savoir universitaire et savoirs populaires, dans la mise en commun des solutions face aux épreuves de la vie. La culture est vue comme une valeur et comme un recours qui permet d’additionner et de multiplier les potentiels de croissance et les capacités à résoudre les problèmes sociaux. 
 Au cours d'une séance, chansons, poèmes, musique, danse, proverbes, etc. amenés par les participants, enrichissent la thérapie par la diversité des codes d’expression. À partir de l’écoute des histoires de vie, chacun devient thérapeute de lui-même. Tous sont coresponsables de la recherche de solutions et du dépassement des défis quotidiens dans une ambiance chaleureuse. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapie_communautaire</t>
+          <t>Thérapie_communautaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,25 +561,167 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La thérapie communautaire est née en 1987 à Fortaleza dans le Département de Santé Communautaire de la Faculté de Médecine de l’Université Fédérale du Ceará, à l’initiative du professeur Adalberto Barreto. Selon ce dernier, elle représente une réponse à la demande de consultations émanant des habitants de la favela de Pirambú (environ 280 000 habitants), adressées par Ayrton Barreto, son frère, avocat de l’Association des Droits de l’Homme de la favela : La souffrance psychique associée aux questions des droits de l’homme et de citoyenneté a déterminé cette demande de soutien à la Faculté de Médecine. 
 Adalberto Barreto a trouvé plus pertinent de venir dans la favela où il a décidé d’organiser une réunion hebdomadaire durant lesquelles les difficultés pourraient s’exprimer dans les termes où les gens les vivaient, et où les solutions se dégageraient à partir des expériences de vie des participants. C’est à partir de cette pratique visant à valoriser les acquis existentiels, les savoirs populaires et les ressources culturelles qu’a pris forme cette approche d’animation d’espace de parole. Elle s’est progressivement organisée dans le temps en définissant des règles et un mode de fonctionnement très structuré afin que la parole de chacun soit respectée et que l’échange soit le plus libre possible. 
-Autour de la thérapie communautaire se sont développées d’autres modalités d’aide et de soutien aux gens de la favela, toujours basées sur les compétences locales des habitants. Ainsi est né le projet Quatro Varas (art thérapie, maison de santé communautaire, théâtre, pharmacie vivante, etc.)[1]
-La formation à la thérapie communautaire fait désormais partie intégrante de la politique publique du Ministère de la Santé du Brésil[2]. 
-Actuellement, il existe au Brésil 36 centres de formation[3]). Environ 35 000 thérapeutes communautaires ont été formés (leaders communautaires, travailleurs sociaux, psychologues, médecins…).
-Actuellement, plusieurs centaines de personnes ont été formées en France et en Suisse, en Italie et en Allemagne et  plusieurs groupes fonctionnent à Grenoble, Marseille, Toulon, Vienne, Lyon, Paris, Bruxelles, Genève, Lausanne, Strasbourg, Mulhouse, Bologne…). Cette dynamique est soutenue par l’Association Européenne de Thérapie Communautaire[4] qui valide et  assure la qualité de la formation et participe à la coordination des groupes avec le soutien de l’Association Française des Amis de Quatro Varas.  
-Concepts
-Cette thérapie s’organise autour de 5 axes théoriques : la pensée systémique, la théorie de la communication, l’anthropologie culturelle, la pédagogie de Paulo Freire et la résilience (valorisation de l’expérience personnelle).
+Autour de la thérapie communautaire se sont développées d’autres modalités d’aide et de soutien aux gens de la favela, toujours basées sur les compétences locales des habitants. Ainsi est né le projet Quatro Varas (art thérapie, maison de santé communautaire, théâtre, pharmacie vivante, etc.)
+La formation à la thérapie communautaire fait désormais partie intégrante de la politique publique du Ministère de la Santé du Brésil. 
+Actuellement, il existe au Brésil 36 centres de formation). Environ 35 000 thérapeutes communautaires ont été formés (leaders communautaires, travailleurs sociaux, psychologues, médecins…).
+Actuellement, plusieurs centaines de personnes ont été formées en France et en Suisse, en Italie et en Allemagne et  plusieurs groupes fonctionnent à Grenoble, Marseille, Toulon, Vienne, Lyon, Paris, Bruxelles, Genève, Lausanne, Strasbourg, Mulhouse, Bologne…). Cette dynamique est soutenue par l’Association Européenne de Thérapie Communautaire qui valide et  assure la qualité de la formation et participe à la coordination des groupes avec le soutien de l’Association Française des Amis de Quatro Varas.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thérapie_communautaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapie_communautaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Concepts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette thérapie s’organise autour de 5 axes théoriques : la pensée systémique, la théorie de la communication, l’anthropologie culturelle, la pédagogie de Paulo Freire et la résilience (valorisation de l’expérience personnelle).
 Elle postule que toute société humaine dispose de mécanismes régulateurs efficaces et très importants culturellement. Les possibilités de prévention et de soin de la souffrance psychique et les manières de la soigner sont aussi nombreuses que sont variés les différents contextes, sociétés et cultures existants. Selon cette méthode, toute personne ou tout groupe possèderait en son sein, même s’il n’en a pas conscience et même s’il se trouve en situation de grande précarité, des ressources pour dépasser les difficultés, ressources qui lui viennent du savoir acquis à partir de ses expériences de vie et de sa (ses) culture(s).
-Éthique
-La thérapie communautaire cherche à rompre avec l’isolement du « savoir scientifique » comme avec celui du « savoir populaire » : elle respecte et met à profit ces deux formes de savoir. Elle œuvre dans une perspective de complémentarité sans rompre avec la tradition et sans nier les apports de la science moderne. Elle met en pratique une « écologie de l’esprit », qui respecte les diversités culturelles et leurs systèmes de représentation[5],[6]. Horizontalité, humilité, humour et respect de l'autre dans ses différences sont des valeurs incarnées par les animateurs des espaces d'écoute de parole et de lien (ainsi que les groupes de TCI sont volontiers dénommés en Europe).
-Méthodologie
-Dans une séance de thérapie communautaire, l’on part d’une  « situation problème » (insomnie, rupture, alcoolisme, violence, abandon…) présentée par une personne et choisie par le groupe parmi plusieurs propositions. À partir de cette situation, les animateurs cherchent à stimuler et favoriser la croissance de l’individu et des personnes de son environnement pour acquérir un plus grand degré d’autonomie, de conscience et de coresponsabilité. La question-clé qui  déclenche la réflexion est : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thérapie_communautaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapie_communautaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Éthique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La thérapie communautaire cherche à rompre avec l’isolement du « savoir scientifique » comme avec celui du « savoir populaire » : elle respecte et met à profit ces deux formes de savoir. Elle œuvre dans une perspective de complémentarité sans rompre avec la tradition et sans nier les apports de la science moderne. Elle met en pratique une « écologie de l’esprit », qui respecte les diversités culturelles et leurs systèmes de représentation,. Horizontalité, humilité, humour et respect de l'autre dans ses différences sont des valeurs incarnées par les animateurs des espaces d'écoute de parole et de lien (ainsi que les groupes de TCI sont volontiers dénommés en Europe).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thérapie_communautaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapie_communautaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Méthodologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une séance de thérapie communautaire, l’on part d’une  « situation problème » (insomnie, rupture, alcoolisme, violence, abandon…) présentée par une personne et choisie par le groupe parmi plusieurs propositions. À partir de cette situation, les animateurs cherchent à stimuler et favoriser la croissance de l’individu et des personnes de son environnement pour acquérir un plus grand degré d’autonomie, de conscience et de coresponsabilité. La question-clé qui  déclenche la réflexion est : 
 « Qui de vous a déjà vécu quelque chose de semblable et qu'avez-vous fait pour vous en sortir ? »
 Mettre des mots sur les maux : dans la thérapie communautaire, la parole est un remède pour celui qui parle aussi bien que pour celui qui écoute. C’est le partage des expériences de vie entre les participants qui montre les issues  possibles et permet à la communauté de trouver en elle-même les solutions à des problèmes qu’isolément la personne, la famille et les services publics n’ont pas été capables de trouver.
-Objectifs
-L’OMS identifie 10 déterminants sociaux de la santé[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thérapie_communautaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapie_communautaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Objectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’OMS identifie 10 déterminants sociaux de la santé :
 Les inégalités sociales
 Le stress
 La petite enfance
@@ -584,17 +740,52 @@
 ces situations stressantes peuvent être affrontées seulement avec la force et le soutien du groupe.
 Dans la thérapie communautaire, la parole est le remède, le baume apaisant, calmant, la boussole pour qui parle et qui écoute.
 C’est dans le partage de l’expérience  de chacun que la douleur des personnes souffrantes est soulagée et que peuvent apparaître de nouvelles pistes pour surmonter les problèmes. Le groupe devient espace d’accueil et de soin grâce au respect des règles de tolérance précises assuré par les deux animateurs formés : faire silence, respecter la parole de l’autre, pas de conseils, pas de jugement, d’analyse ou d’interprétation, parler seulement à la première personne des expériences vécues et  proposer, si l’idée vient en résonance avec ce qui est dit, des  chansons,  poésies, blagues, dictons….. supports culturels hérités de la mémoire collective.
-Bilan
-En 22 ans, la thérapie communautaire a démontré qu’elle est :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thérapie_communautaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Th%C3%A9rapie_communautaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bilan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 22 ans, la thérapie communautaire a démontré qu’elle est :
 un instrument précieux d’intervention psychosociale en matière de santé publique ;
 un espace d’expression libre, un outil de prévention des souffrances psychosociales ;
-un espace d’accueil des souffrances en ce qui concerne les soins primaires préventifs pour réserver les soins secondaires aux personnes qui en ont réellement besoin (pathologie)[8].
+un espace d’accueil des souffrances en ce qui concerne les soins primaires préventifs pour réserver les soins secondaires aux personnes qui en ont réellement besoin (pathologie).
 La thérapie communautaire n’a ni la prétention d’être une panacée ni celle de se substituer  aux modalités de soins existants. Elle se situe en complémentarité et non en compétition avec elles. 
 Selon une étude récente, menée au Brésil, la thérapie communautaire réduit la demande auprès des services spécialisés : à peine 11,5 % des personnes ayant participé à des séances de thérapie communautaire ont eu besoin de recourir aux services spécialisés. 
-La construction des réseaux de soutien  social rend l’individu et la communauté plus autonomes et moins dépendants des spécialistes et des institutions spécialisées[9].
-Elle peut être adaptée dans différents contextes et s'adresser à une grande variété de publics : groupes de communauté d'habitat, comme dans le cadre du projet Quatro Varas, mais aussi adolescents[10], patients addictifs en institution[11],[12], comme outil de développement des compétences psychosociales et de l'empowerment dans l'Éducation thérapeutique du patient[13], avec des personnes en grande précarité[14], etc. 
+La construction des réseaux de soutien  social rend l’individu et la communauté plus autonomes et moins dépendants des spécialistes et des institutions spécialisées.
+Elle peut être adaptée dans différents contextes et s'adresser à une grande variété de publics : groupes de communauté d'habitat, comme dans le cadre du projet Quatro Varas, mais aussi adolescents, patients addictifs en institution comme outil de développement des compétences psychosociales et de l'empowerment dans l'Éducation thérapeutique du patient, avec des personnes en grande précarité, etc. 
 Enfin, elle est citée dans le bilan réalisé par Lise Demailly &amp; coll. dans un rapport sur les Analyses d'innovations dans les secteurs psychiatriques : augmenter la mobilité et la
-disponibilité. Elle cite la TCI comme un exemple de médecine communautaire[15].
+disponibilité. Elle cite la TCI comme un exemple de médecine communautaire.
 </t>
         </is>
       </c>
